--- a/SURAT/Surat Keluar PMII Arya Suralaya.xlsx
+++ b/SURAT/Surat Keluar PMII Arya Suralaya.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PMII\2022\SURAT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69CC4B43-D14B-4446-A387-5331A120CB0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70079B6F-DB4E-4ACF-AC0B-D1025D066CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{CEAF646B-8E9F-47DF-9BBD-AC352C795DE0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="11070" xr2:uid="{CEAF646B-8E9F-47DF-9BBD-AC352C795DE0}"/>
   </bookViews>
   <sheets>
     <sheet name="REKAPAN SURAT KELUAR" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
   <si>
     <t>No</t>
   </si>
@@ -181,10 +181,16 @@
     <t>002 - 003</t>
   </si>
   <si>
-    <t>095.PK-VII.V-01.01.002.A-1.03.2022 Sampai               096.PK-VII.V-01.01.003.A-1.03.2022</t>
-  </si>
-  <si>
     <t>SURAT KELUAR                                                                                                                                                                                       PMII  ARYA SURALAYA BUMIAYU MASA KHIDMAT 2022/2023</t>
+  </si>
+  <si>
+    <t>PMII Walisongo uin semarang</t>
+  </si>
+  <si>
+    <t>095.PK-VII.V-01.01.002.A-II.03.2022 Sampai                                        096.PK-VII.V-01.01.003.A-II.03.2022</t>
+  </si>
+  <si>
+    <t>097.PK-VII.V-01.01.004.A-II.05.2022 sampai                                   111.PK-VII.V-01.01.008.A-II.05.2022</t>
   </si>
 </sst>
 </file>
@@ -192,8 +198,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="170" formatCode="[$-13809]dddd\,\ dd\ mmmm\ yyyy;@"/>
-    <numFmt numFmtId="171" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-13809]dddd\,\ dd\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -316,9 +322,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -351,44 +356,56 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="171" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -706,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C638351D-113D-4CC1-BD99-FC680786AB58}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection sqref="A1:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,327 +739,331 @@
     <col min="10" max="10" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="26" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:7" s="24" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+    </row>
+    <row r="2" spans="1:7" s="24" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+    </row>
+    <row r="6" spans="1:7" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>1</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" s="9" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <v>2</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>3</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>4</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="22"/>
+    </row>
+    <row r="10" spans="1:7" s="6" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>5</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="22"/>
+    </row>
+    <row r="11" spans="1:7" s="7" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>6</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
+        <v>7</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>8</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="22">
+        <v>9</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="23">
+        <v>44652</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="22"/>
+    </row>
+    <row r="15" spans="1:7" s="27" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="25"/>
+      <c r="B15" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-    </row>
-    <row r="2" spans="1:7" s="26" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
-        <v>1</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="17"/>
-    </row>
-    <row r="7" spans="1:7" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
-        <v>2</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="17"/>
-    </row>
-    <row r="8" spans="1:7" s="5" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
-        <v>3</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="17"/>
-    </row>
-    <row r="9" spans="1:7" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
-        <v>4</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="24"/>
-    </row>
-    <row r="10" spans="1:7" s="7" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
-        <v>5</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="24"/>
-    </row>
-    <row r="11" spans="1:7" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
-        <v>6</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="17"/>
-    </row>
-    <row r="12" spans="1:7" s="9" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
-        <v>7</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="17"/>
-    </row>
-    <row r="13" spans="1:7" s="9" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
-        <v>8</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="17"/>
-    </row>
-    <row r="14" spans="1:7" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24">
-        <v>9</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="25">
-        <v>44652</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="24"/>
-    </row>
-    <row r="15" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
     </row>
     <row r="16" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1070,108 +1091,108 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" style="11" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="19.140625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="10" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>26</v>
       </c>
     </row>
